--- a/DONE/OBINA, JAIME.xlsx
+++ b/DONE/OBINA, JAIME.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA1D65-2933-439F-9ECF-42F63CDCCCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -252,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -631,17 +630,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -651,6 +647,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,25 +1178,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1209,25 +1208,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1534,34 +1533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A64"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1573,16 +1572,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1591,16 +1590,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1611,16 +1610,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1628,7 +1627,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1641,24 +1640,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1702,7 +1701,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1712,12 +1711,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1739,7 +1738,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1759,7 +1758,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1779,7 +1778,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1825,7 +1824,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1845,7 +1844,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1891,7 +1890,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1911,7 +1910,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1931,7 +1930,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1951,7 +1950,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1971,7 +1970,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1991,7 +1990,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +2008,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -2029,7 +2028,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -2049,7 +2048,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -2069,7 +2068,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -2089,7 +2088,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -2109,7 +2108,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -2129,7 +2128,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -2149,7 +2148,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -2169,7 +2168,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -2189,7 +2188,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -2209,7 +2208,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -2229,7 +2228,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -2253,7 +2252,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>56</v>
       </c>
@@ -2271,7 +2270,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2291,7 +2290,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2311,7 +2310,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2331,7 +2330,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2391,7 +2390,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2411,7 +2410,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2431,7 +2430,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2451,7 +2450,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2471,7 +2470,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2491,7 +2490,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2515,7 +2514,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -2533,7 +2532,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2553,7 +2552,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2573,7 +2572,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2593,7 +2592,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2613,7 +2612,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2653,7 +2652,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2673,7 +2672,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2693,7 +2692,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2713,7 +2712,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2753,7 +2752,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2777,7 +2776,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -2795,7 +2794,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2815,7 +2814,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2835,7 +2834,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2875,7 +2874,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2895,7 +2894,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2915,7 +2914,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2935,7 +2934,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2975,7 +2974,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -2995,7 +2994,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -3041,7 +3040,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>68</v>
       </c>
@@ -3059,7 +3058,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -3079,39 +3078,47 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3127,7 +3134,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3143,7 +3150,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3159,7 +3166,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3175,7 +3182,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3191,7 +3198,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3207,7 +3214,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3223,7 +3230,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3239,7 +3246,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3255,7 +3262,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3271,7 +3278,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3287,7 +3294,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3303,7 +3310,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3319,7 +3326,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3335,7 +3342,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3351,7 +3358,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3367,7 +3374,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3383,7 +3390,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3399,7 +3406,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3415,7 +3422,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3431,7 +3438,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3447,7 +3454,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3463,7 +3470,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3479,7 +3486,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3495,7 +3502,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3511,7 +3518,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3527,7 +3534,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3543,7 +3550,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3559,7 +3566,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3575,7 +3582,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3591,7 +3598,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3607,7 +3614,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3623,7 +3630,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3639,7 +3646,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3655,7 +3662,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3671,7 +3678,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3687,7 +3694,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -3705,23 +3712,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3744,34 +3751,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3783,16 +3790,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3801,16 +3808,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3821,16 +3828,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3838,7 +3845,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3851,24 +3858,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3922,12 +3929,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>181.75</v>
+        <v>180.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3949,7 +3956,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43252</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43344</v>
       </c>
@@ -3997,7 +4004,7 @@
         <v>43355</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>52</v>
       </c>
@@ -4015,7 +4022,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43556</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43647</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4085,7 +4092,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -4155,7 +4162,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43800</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>56</v>
       </c>
@@ -4197,7 +4204,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -4221,7 +4228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4243,7 +4250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>61</v>
       </c>
@@ -4285,7 +4292,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44593</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44743</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44774</v>
       </c>
@@ -4357,7 +4364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44896</v>
       </c>
@@ -4381,8 +4388,10 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -4397,9 +4406,13 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -4408,12 +4421,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="49">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4429,7 +4446,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4445,7 +4462,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4461,7 +4478,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4477,7 +4494,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4493,7 +4510,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4509,7 +4526,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4525,7 +4542,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4541,7 +4558,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4557,7 +4574,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4573,7 +4590,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4589,7 +4606,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4605,7 +4622,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4621,7 +4638,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4637,7 +4654,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4653,7 +4670,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4669,7 +4686,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4685,7 +4702,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4701,7 +4718,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4717,7 +4734,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4733,7 +4750,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4749,7 +4766,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4765,7 +4782,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4781,7 +4798,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4797,7 +4814,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4813,7 +4830,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4829,7 +4846,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4845,7 +4862,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4861,7 +4878,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4877,7 +4894,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4893,7 +4910,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4909,7 +4926,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4925,7 +4942,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4941,7 +4958,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4957,7 +4974,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4973,7 +4990,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4989,7 +5006,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5005,7 +5022,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5021,7 +5038,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="15"/>
       <c r="C70" s="42"/>
@@ -5052,10 +5069,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5078,28 +5095,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5112,7 +5129,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5141,7 +5158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>214.708</v>
       </c>
@@ -5165,17 +5182,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5196,7 +5213,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5223,7 +5240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5249,7 +5266,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5275,7 +5292,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5301,7 +5318,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5327,7 +5344,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5353,7 +5370,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5379,7 +5396,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5405,7 +5422,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5425,7 +5442,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5445,7 +5462,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5486,7 +5503,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5507,7 +5524,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5528,7 +5545,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5549,7 +5566,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5570,7 +5587,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5591,7 +5608,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5612,7 +5629,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5633,7 +5650,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5654,7 +5671,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5675,7 +5692,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5696,7 +5713,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5717,7 +5734,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5738,7 +5755,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5759,7 +5776,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5780,7 +5797,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5801,7 +5818,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5822,7 +5839,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5843,7 +5860,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5864,7 +5881,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5885,7 +5902,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5894,7 +5911,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5903,7 +5920,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5912,7 +5929,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5921,7 +5938,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5930,7 +5947,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5939,7 +5956,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5948,7 +5965,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5957,7 +5974,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5966,7 +5983,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5975,7 +5992,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5984,7 +6001,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5993,7 +6010,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6002,7 +6019,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6011,7 +6028,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6020,7 +6037,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6029,7 +6046,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6038,7 +6055,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6047,7 +6064,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6056,7 +6073,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6065,7 +6082,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6074,7 +6091,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6083,7 +6100,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6092,7 +6109,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6101,7 +6118,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6110,7 +6127,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6119,7 +6136,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6128,7 +6145,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6137,7 +6154,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6146,7 +6163,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DONE/OBINA, JAIME.xlsx
+++ b/DONE/OBINA, JAIME.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -630,14 +630,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,9 +650,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1540,9 +1540,9 @@
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,14 +1572,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1590,14 +1590,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1610,14 +1610,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1643,18 +1643,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3712,19 +3712,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -3733,7 +3733,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3741,8 +3741,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                            OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3790,14 +3790,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3808,14 +3808,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3828,14 +3828,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3861,18 +3861,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/OBINA, JAIME.xlsx
+++ b/DONE/OBINA, JAIME.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -630,17 +630,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -650,6 +647,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,10 +1539,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,14 +1572,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1590,14 +1590,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1610,14 +1610,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1643,18 +1643,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1711,7 +1711,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3119,15 +3119,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -3135,7 +3139,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -3712,17 +3718,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3757,10 +3763,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,14 +3796,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3808,14 +3814,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3828,14 +3834,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3861,18 +3867,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3929,7 +3935,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4431,8 +4437,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -4441,10 +4451,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="49">
+        <v>45049</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
